--- a/steamcase/goods/goodssearchcase.xlsx
+++ b/steamcase/goods/goodssearchcase.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\goods\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -58,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/steam-resource/admin/product/page-activity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询一个活动正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,12 +67,16 @@
 "title":"QUEENS PALACE高级定制馆C-自动化"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/steam-resource/admin/product/page-goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -248,7 +243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -442,21 +437,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -468,7 +463,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,22 +489,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="72" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>

--- a/steamcase/goods/goodssearchcase.xlsx
+++ b/steamcase/goods/goodssearchcase.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\goods\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{232BC7AD-CD2C-4647-BDFE-BA3E864FBC14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -68,15 +74,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/steam-resource/admin/product/page-goods</t>
+    <t>/steam-resource/admin/product/page-goodsff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,21 +443,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -463,7 +469,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" customHeight="1">
+    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
